--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2237.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2237.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.308790031487097</v>
+        <v>1.070500135421753</v>
       </c>
       <c r="B1">
-        <v>2.931791590027944</v>
+        <v>2.382978439331055</v>
       </c>
       <c r="C1">
-        <v>8.314860935254096</v>
+        <v>6.440464973449707</v>
       </c>
       <c r="D1">
-        <v>1.964014361190155</v>
+        <v>2.239310264587402</v>
       </c>
       <c r="E1">
-        <v>1.081548153657979</v>
+        <v>1.287963509559631</v>
       </c>
     </row>
   </sheetData>
